--- a/Design/Configs/Localization/MultilingualConfigs.xlsx
+++ b/Design/Configs/Localization/MultilingualConfigs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dudu502\LittleBee\Design\Configs\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB0DF18-F398-464D-A61A-6544C4EB511A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7BBB3C-43FF-4884-89BB-CA7B88C30D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="105">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,6 +417,22 @@
   </si>
   <si>
     <t>错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -745,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:XFD37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1308,6 +1324,28 @@
         <v>52</v>
       </c>
     </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
